--- a/Data/backup/marketmomentum.xlsx
+++ b/Data/backup/marketmomentum.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1428,7 +1428,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>44533.7393693405</v>
+        <v>44533.73936934028</v>
       </c>
       <c r="C30">
         <v>1854</v>
@@ -1456,6 +1456,181 @@
       </c>
       <c r="K30">
         <v>-4282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44536.35170128472</v>
+      </c>
+      <c r="C31">
+        <v>5983</v>
+      </c>
+      <c r="D31">
+        <v>2187</v>
+      </c>
+      <c r="E31">
+        <v>3796</v>
+      </c>
+      <c r="F31">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>785</v>
+      </c>
+      <c r="H31">
+        <v>-703</v>
+      </c>
+      <c r="I31">
+        <v>2535</v>
+      </c>
+      <c r="J31">
+        <v>5893</v>
+      </c>
+      <c r="K31">
+        <v>-3358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44537.34204623842</v>
+      </c>
+      <c r="C32">
+        <v>6750</v>
+      </c>
+      <c r="D32">
+        <v>1403</v>
+      </c>
+      <c r="E32">
+        <v>5347</v>
+      </c>
+      <c r="F32">
+        <v>168</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
+      </c>
+      <c r="H32">
+        <v>93</v>
+      </c>
+      <c r="I32">
+        <v>3268</v>
+      </c>
+      <c r="J32">
+        <v>5160</v>
+      </c>
+      <c r="K32">
+        <v>-1892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44538.51368725694</v>
+      </c>
+      <c r="C33">
+        <v>5523</v>
+      </c>
+      <c r="D33">
+        <v>2569</v>
+      </c>
+      <c r="E33">
+        <v>2954</v>
+      </c>
+      <c r="F33">
+        <v>160</v>
+      </c>
+      <c r="G33">
+        <v>79</v>
+      </c>
+      <c r="H33">
+        <v>81</v>
+      </c>
+      <c r="I33">
+        <v>3469</v>
+      </c>
+      <c r="J33">
+        <v>4959</v>
+      </c>
+      <c r="K33">
+        <v>-1490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44539.34259184028</v>
+      </c>
+      <c r="C34">
+        <v>1508</v>
+      </c>
+      <c r="D34">
+        <v>6613</v>
+      </c>
+      <c r="E34">
+        <v>-5105</v>
+      </c>
+      <c r="F34">
+        <v>97</v>
+      </c>
+      <c r="G34">
+        <v>99</v>
+      </c>
+      <c r="H34">
+        <v>-2</v>
+      </c>
+      <c r="I34">
+        <v>2883</v>
+      </c>
+      <c r="J34">
+        <v>5545</v>
+      </c>
+      <c r="K34">
+        <v>-2662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44540.7086822951</v>
+      </c>
+      <c r="C35">
+        <v>4044</v>
+      </c>
+      <c r="D35">
+        <v>4018</v>
+      </c>
+      <c r="E35">
+        <v>26</v>
+      </c>
+      <c r="F35">
+        <v>134</v>
+      </c>
+      <c r="G35">
+        <v>186</v>
+      </c>
+      <c r="H35">
+        <v>-52</v>
+      </c>
+      <c r="I35">
+        <v>2918</v>
+      </c>
+      <c r="J35">
+        <v>5510</v>
+      </c>
+      <c r="K35">
+        <v>-2592</v>
       </c>
     </row>
   </sheetData>

--- a/Data/backup/marketmomentum.xlsx
+++ b/Data/backup/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1684,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44543.36199491865</v>
+        <v>44543.36199491898</v>
       </c>
       <c r="C36" t="n">
         <v>2150</v>
@@ -1712,6 +1712,181 @@
       </c>
       <c r="K36" t="n">
         <v>-3406</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44544.36404479167</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2044</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6072</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-4028</v>
+      </c>
+      <c r="F37" t="n">
+        <v>45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>581</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-536</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2217</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6226</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-4009</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44545.37888293982</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5680</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2427</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3253</v>
+      </c>
+      <c r="F38" t="n">
+        <v>174</v>
+      </c>
+      <c r="G38" t="n">
+        <v>860</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-686</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2550</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5893</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-3343</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44546.39054237268</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3045</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5098</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-2053</v>
+      </c>
+      <c r="F39" t="n">
+        <v>285</v>
+      </c>
+      <c r="G39" t="n">
+        <v>244</v>
+      </c>
+      <c r="H39" t="n">
+        <v>41</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2371</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6073</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-3702</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>44547.60768001158</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3717</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4393</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-676</v>
+      </c>
+      <c r="F40" t="n">
+        <v>82</v>
+      </c>
+      <c r="G40" t="n">
+        <v>561</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-479</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2206</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6238</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-4032</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44550.35789284758</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1669</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6480</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-4811</v>
+      </c>
+      <c r="F41" t="n">
+        <v>29</v>
+      </c>
+      <c r="G41" t="n">
+        <v>640</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-611</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1710</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6726</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-5016</v>
       </c>
     </row>
   </sheetData>

--- a/Data/backup/marketmomentum.xlsx
+++ b/Data/backup/marketmomentum.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1859,7 +1859,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44550.35789284758</v>
+        <v>44550.35789284722</v>
       </c>
       <c r="C41" t="n">
         <v>1669</v>
@@ -1887,6 +1887,4416 @@
       </c>
       <c r="K41" t="n">
         <v>-5016</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>44551.3291940162</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1468</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5157</v>
+      </c>
+      <c r="F42" t="n">
+        <v>67</v>
+      </c>
+      <c r="G42" t="n">
+        <v>166</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-99</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2355</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6081</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-3726</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>44552.4115341088</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5866</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2214</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3652</v>
+      </c>
+      <c r="F43" t="n">
+        <v>111</v>
+      </c>
+      <c r="G43" t="n">
+        <v>128</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-17</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2714</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5722</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-3008</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>44553.39582753472</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5948</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2155</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3793</v>
+      </c>
+      <c r="F44" t="n">
+        <v>222</v>
+      </c>
+      <c r="G44" t="n">
+        <v>105</v>
+      </c>
+      <c r="H44" t="n">
+        <v>117</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3033</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5406</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-2373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44557.4311341088</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5316</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2814</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2502</v>
+      </c>
+      <c r="F45" t="n">
+        <v>468</v>
+      </c>
+      <c r="G45" t="n">
+        <v>182</v>
+      </c>
+      <c r="H45" t="n">
+        <v>286</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3426</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5004</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-1578</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44558.45346303241</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3146</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4929</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1783</v>
+      </c>
+      <c r="F46" t="n">
+        <v>559</v>
+      </c>
+      <c r="G46" t="n">
+        <v>311</v>
+      </c>
+      <c r="H46" t="n">
+        <v>248</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3390</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5041</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1651</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>44559.43552010417</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3864</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4222</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-358</v>
+      </c>
+      <c r="F47" t="n">
+        <v>420</v>
+      </c>
+      <c r="G47" t="n">
+        <v>488</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-68</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3351</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5082</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1731</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44560.38234918981</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4324</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3769</v>
+      </c>
+      <c r="E48" t="n">
+        <v>555</v>
+      </c>
+      <c r="F48" t="n">
+        <v>444</v>
+      </c>
+      <c r="G48" t="n">
+        <v>194</v>
+      </c>
+      <c r="H48" t="n">
+        <v>250</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3378</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5055</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-1677</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44561.4389515162</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3919</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4148</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-229</v>
+      </c>
+      <c r="F49" t="n">
+        <v>246</v>
+      </c>
+      <c r="G49" t="n">
+        <v>158</v>
+      </c>
+      <c r="H49" t="n">
+        <v>88</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3436</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4997</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1561</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44564.34829358797</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5459</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2711</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F50" t="n">
+        <v>240</v>
+      </c>
+      <c r="G50" t="n">
+        <v>103</v>
+      </c>
+      <c r="H50" t="n">
+        <v>137</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3838</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4595</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-757</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44565.35102104166</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4007</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4110</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-103</v>
+      </c>
+      <c r="F51" t="n">
+        <v>453</v>
+      </c>
+      <c r="G51" t="n">
+        <v>216</v>
+      </c>
+      <c r="H51" t="n">
+        <v>237</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3990</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4436</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-446</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44566.37143184028</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1237</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6917</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-5680</v>
+      </c>
+      <c r="F52" t="n">
+        <v>349</v>
+      </c>
+      <c r="G52" t="n">
+        <v>543</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-194</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3187</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5239</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-2052</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>44567.35282760417</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4006</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4085</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-79</v>
+      </c>
+      <c r="F53" t="n">
+        <v>145</v>
+      </c>
+      <c r="G53" t="n">
+        <v>822</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-677</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3213</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5213</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>44568.51203725694</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3608</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4430</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-822</v>
+      </c>
+      <c r="F54" t="n">
+        <v>215</v>
+      </c>
+      <c r="G54" t="n">
+        <v>447</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-232</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3129</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5297</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-2168</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44571.34912231482</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2724</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5508</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-2784</v>
+      </c>
+      <c r="F55" t="n">
+        <v>202</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1005</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-803</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2942</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5650</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-2708</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>44572.34881621528</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6243</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4258</v>
+      </c>
+      <c r="F56" t="n">
+        <v>186</v>
+      </c>
+      <c r="G56" t="n">
+        <v>212</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-26</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3382</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5210</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1828</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44573.34207251157</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4088</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4109</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F57" t="n">
+        <v>296</v>
+      </c>
+      <c r="G57" t="n">
+        <v>176</v>
+      </c>
+      <c r="H57" t="n">
+        <v>120</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3485</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5107</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-1622</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44574.34580534722</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2654</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5588</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-2934</v>
+      </c>
+      <c r="F58" t="n">
+        <v>335</v>
+      </c>
+      <c r="G58" t="n">
+        <v>463</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-128</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3231</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5367</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-2136</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44575.50548902778</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3713</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4487</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-774</v>
+      </c>
+      <c r="F59" t="n">
+        <v>213</v>
+      </c>
+      <c r="G59" t="n">
+        <v>840</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-627</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3169</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5429</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-2260</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44579.34822121528</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7082</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-5864</v>
+      </c>
+      <c r="F60" t="n">
+        <v>216</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1154</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-938</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2545</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6051</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-3506</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44580.34558532407</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2538</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5702</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-3164</v>
+      </c>
+      <c r="F61" t="n">
+        <v>108</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1033</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-925</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2343</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6253</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-3910</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44581.37797461806</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1956</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6281</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-4325</v>
+      </c>
+      <c r="F62" t="n">
+        <v>73</v>
+      </c>
+      <c r="G62" t="n">
+        <v>903</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-830</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2033</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6563</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-4530</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44582.55874290509</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1422</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6922</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-5500</v>
+      </c>
+      <c r="F63" t="n">
+        <v>22</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1691</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-1669</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1590</v>
+      </c>
+      <c r="J63" t="n">
+        <v>7006</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-5416</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44585.33905521991</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4259</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4075</v>
+      </c>
+      <c r="E64" t="n">
+        <v>184</v>
+      </c>
+      <c r="F64" t="n">
+        <v>24</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2345</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-2321</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1569</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7011</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-5442</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44586.3379528125</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3088</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5171</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-2083</v>
+      </c>
+      <c r="F65" t="n">
+        <v>31</v>
+      </c>
+      <c r="G65" t="n">
+        <v>280</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-249</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1589</v>
+      </c>
+      <c r="J65" t="n">
+        <v>6991</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-5402</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44587.32361883102</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2383</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5881</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-3498</v>
+      </c>
+      <c r="F66" t="n">
+        <v>82</v>
+      </c>
+      <c r="G66" t="n">
+        <v>542</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-460</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1499</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7081</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-5582</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44588.40606255787</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6335</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-4365</v>
+      </c>
+      <c r="F67" t="n">
+        <v>74</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1112</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-1038</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1335</v>
+      </c>
+      <c r="J67" t="n">
+        <v>7245</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-5910</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44589.35466844907</v>
+      </c>
+      <c r="C68" t="n">
+        <v>6063</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2174</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3889</v>
+      </c>
+      <c r="F68" t="n">
+        <v>46</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1514</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-1468</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1504</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7076</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-5572</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44592.35286337963</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7142</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1143</v>
+      </c>
+      <c r="E69" t="n">
+        <v>5999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>54</v>
+      </c>
+      <c r="G69" t="n">
+        <v>167</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-113</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1984</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6597</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-4613</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44593.45125046296</v>
+      </c>
+      <c r="C70" t="n">
+        <v>6265</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4259</v>
+      </c>
+      <c r="F70" t="n">
+        <v>130</v>
+      </c>
+      <c r="G70" t="n">
+        <v>109</v>
+      </c>
+      <c r="H70" t="n">
+        <v>21</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2359</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6222</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-3863</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44594.3423778125</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3757</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4476</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-719</v>
+      </c>
+      <c r="F71" t="n">
+        <v>158</v>
+      </c>
+      <c r="G71" t="n">
+        <v>95</v>
+      </c>
+      <c r="H71" t="n">
+        <v>63</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2425</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6156</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-3731</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44595.32776372685</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6909</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-5559</v>
+      </c>
+      <c r="F72" t="n">
+        <v>95</v>
+      </c>
+      <c r="G72" t="n">
+        <v>295</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-200</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2036</v>
+      </c>
+      <c r="J72" t="n">
+        <v>6545</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-4509</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44596.38204256944</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4836</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3359</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1477</v>
+      </c>
+      <c r="F73" t="n">
+        <v>130</v>
+      </c>
+      <c r="G73" t="n">
+        <v>544</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-414</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2140</v>
+      </c>
+      <c r="J73" t="n">
+        <v>6441</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-4301</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44599.41646484954</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4637</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3548</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1089</v>
+      </c>
+      <c r="F74" t="n">
+        <v>103</v>
+      </c>
+      <c r="G74" t="n">
+        <v>258</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-155</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2292</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6281</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-3989</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44600.3967803125</v>
+      </c>
+      <c r="C75" t="n">
+        <v>5581</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2622</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2959</v>
+      </c>
+      <c r="F75" t="n">
+        <v>124</v>
+      </c>
+      <c r="G75" t="n">
+        <v>309</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-185</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2649</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5924</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-3275</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44601.3802843287</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6418</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1788</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4630</v>
+      </c>
+      <c r="F76" t="n">
+        <v>181</v>
+      </c>
+      <c r="G76" t="n">
+        <v>131</v>
+      </c>
+      <c r="H76" t="n">
+        <v>50</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3171</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5402</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-2231</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44602.39486453704</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1885</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6385</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-4500</v>
+      </c>
+      <c r="F77" t="n">
+        <v>194</v>
+      </c>
+      <c r="G77" t="n">
+        <v>486</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-292</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2779</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5794</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-3015</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44603.32290997685</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2289</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5936</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-3647</v>
+      </c>
+      <c r="F78" t="n">
+        <v>139</v>
+      </c>
+      <c r="G78" t="n">
+        <v>598</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-459</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2542</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6035</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-3493</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>44606.38058643518</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2207</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6018</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-3811</v>
+      </c>
+      <c r="F79" t="n">
+        <v>61</v>
+      </c>
+      <c r="G79" t="n">
+        <v>677</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-616</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2319</v>
+      </c>
+      <c r="J79" t="n">
+        <v>6254</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-3935</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>44607.36974143518</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6717</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1534</v>
+      </c>
+      <c r="E80" t="n">
+        <v>5183</v>
+      </c>
+      <c r="F80" t="n">
+        <v>73</v>
+      </c>
+      <c r="G80" t="n">
+        <v>311</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-238</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2966</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5607</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-2641</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44608.39985342592</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5003</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3185</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1818</v>
+      </c>
+      <c r="F81" t="n">
+        <v>127</v>
+      </c>
+      <c r="G81" t="n">
+        <v>304</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-177</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3126</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5447</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-2321</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>44609.37823881944</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1663</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6582</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-4919</v>
+      </c>
+      <c r="F82" t="n">
+        <v>45</v>
+      </c>
+      <c r="G82" t="n">
+        <v>354</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-309</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2605</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5968</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-3363</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>44610.39972234954</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2407</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5756</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-3349</v>
+      </c>
+      <c r="F83" t="n">
+        <v>46</v>
+      </c>
+      <c r="G83" t="n">
+        <v>554</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-508</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2409</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6164</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-3755</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44614.34768446759</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1686</v>
+      </c>
+      <c r="D84" t="n">
+        <v>6594</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-4908</v>
+      </c>
+      <c r="F84" t="n">
+        <v>77</v>
+      </c>
+      <c r="G84" t="n">
+        <v>947</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-870</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2052</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6525</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-4473</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44615.36392350694</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1809</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6386</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-4577</v>
+      </c>
+      <c r="F85" t="n">
+        <v>71</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1123</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-1052</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1841</v>
+      </c>
+      <c r="J85" t="n">
+        <v>6736</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-4895</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44616.42517129629</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5172</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3139</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2033</v>
+      </c>
+      <c r="F86" t="n">
+        <v>96</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2285</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-2189</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1921</v>
+      </c>
+      <c r="J86" t="n">
+        <v>6656</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-4735</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44617.341943125</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6551</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1661</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4890</v>
+      </c>
+      <c r="F87" t="n">
+        <v>88</v>
+      </c>
+      <c r="G87" t="n">
+        <v>122</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-34</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2536</v>
+      </c>
+      <c r="J87" t="n">
+        <v>6041</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-3505</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44620.33955344908</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3987</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4232</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-245</v>
+      </c>
+      <c r="F88" t="n">
+        <v>141</v>
+      </c>
+      <c r="G88" t="n">
+        <v>164</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-23</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2529</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6042</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-3513</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44621.34937418981</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2596</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5647</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-3051</v>
+      </c>
+      <c r="F89" t="n">
+        <v>214</v>
+      </c>
+      <c r="G89" t="n">
+        <v>321</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-107</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2231</v>
+      </c>
+      <c r="J89" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-4109</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44622.43820824074</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6019</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2190</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3829</v>
+      </c>
+      <c r="F90" t="n">
+        <v>258</v>
+      </c>
+      <c r="G90" t="n">
+        <v>231</v>
+      </c>
+      <c r="H90" t="n">
+        <v>27</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2725</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5846</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-3121</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44623.36671223379</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2718</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5433</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-2715</v>
+      </c>
+      <c r="F91" t="n">
+        <v>215</v>
+      </c>
+      <c r="G91" t="n">
+        <v>414</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-199</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2611</v>
+      </c>
+      <c r="J91" t="n">
+        <v>5960</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-3349</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44624.39029635417</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2289</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5902</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-3613</v>
+      </c>
+      <c r="F92" t="n">
+        <v>278</v>
+      </c>
+      <c r="G92" t="n">
+        <v>911</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-633</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2389</v>
+      </c>
+      <c r="J92" t="n">
+        <v>6182</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-3793</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44627.32911982639</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1781</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6481</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-4700</v>
+      </c>
+      <c r="F93" t="n">
+        <v>363</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1481</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-1118</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2048</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6516</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-4468</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44628.52345460648</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4161</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4017</v>
+      </c>
+      <c r="E94" t="n">
+        <v>144</v>
+      </c>
+      <c r="F94" t="n">
+        <v>250</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1436</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-1186</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2104</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6460</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-4356</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44629.37360998843</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6520</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1704</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4816</v>
+      </c>
+      <c r="F95" t="n">
+        <v>48</v>
+      </c>
+      <c r="G95" t="n">
+        <v>204</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-156</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2460</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6104</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-3644</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44630.3604252662</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2940</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5208</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-2268</v>
+      </c>
+      <c r="F96" t="n">
+        <v>69</v>
+      </c>
+      <c r="G96" t="n">
+        <v>568</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-499</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2439</v>
+      </c>
+      <c r="J96" t="n">
+        <v>6125</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-3686</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44631.34329800926</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1845</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6345</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-4500</v>
+      </c>
+      <c r="F97" t="n">
+        <v>114</v>
+      </c>
+      <c r="G97" t="n">
+        <v>786</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-672</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2265</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6299</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-4034</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44634.37713215277</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6233</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-4216</v>
+      </c>
+      <c r="F98" t="n">
+        <v>73</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1624</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-1551</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2029</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6536</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-4507</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44635.33390997685</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5673</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3178</v>
+      </c>
+      <c r="F99" t="n">
+        <v>60</v>
+      </c>
+      <c r="G99" t="n">
+        <v>914</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-854</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2167</v>
+      </c>
+      <c r="J99" t="n">
+        <v>6398</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-4231</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44636.33996486111</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6849</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1376</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5473</v>
+      </c>
+      <c r="F100" t="n">
+        <v>70</v>
+      </c>
+      <c r="G100" t="n">
+        <v>361</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-291</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2762</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5803</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-3041</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44637.39102240741</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6573</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1690</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4883</v>
+      </c>
+      <c r="F101" t="n">
+        <v>98</v>
+      </c>
+      <c r="G101" t="n">
+        <v>79</v>
+      </c>
+      <c r="H101" t="n">
+        <v>19</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3435</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5130</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-1695</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44638.37040452546</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5806</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2382</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3424</v>
+      </c>
+      <c r="F102" t="n">
+        <v>120</v>
+      </c>
+      <c r="G102" t="n">
+        <v>62</v>
+      </c>
+      <c r="H102" t="n">
+        <v>58</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4070</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4495</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-425</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44641.3635871412</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2926</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5296</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-2370</v>
+      </c>
+      <c r="F103" t="n">
+        <v>211</v>
+      </c>
+      <c r="G103" t="n">
+        <v>195</v>
+      </c>
+      <c r="H103" t="n">
+        <v>16</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3885</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4667</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-782</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44642.45112188657</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5861</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2322</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3539</v>
+      </c>
+      <c r="F104" t="n">
+        <v>193</v>
+      </c>
+      <c r="G104" t="n">
+        <v>238</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-45</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4424</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4128</v>
+      </c>
+      <c r="K104" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44643.37532565972</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2470</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5714</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-3244</v>
+      </c>
+      <c r="F105" t="n">
+        <v>147</v>
+      </c>
+      <c r="G105" t="n">
+        <v>168</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-21</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3952</v>
+      </c>
+      <c r="J105" t="n">
+        <v>4600</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-648</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44644.34222395833</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5684</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2524</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F106" t="n">
+        <v>198</v>
+      </c>
+      <c r="G106" t="n">
+        <v>235</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-37</v>
+      </c>
+      <c r="I106" t="n">
+        <v>4454</v>
+      </c>
+      <c r="J106" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K106" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44645.38216239584</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3923</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4274</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-351</v>
+      </c>
+      <c r="F107" t="n">
+        <v>333</v>
+      </c>
+      <c r="G107" t="n">
+        <v>413</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-80</v>
+      </c>
+      <c r="I107" t="n">
+        <v>4442</v>
+      </c>
+      <c r="J107" t="n">
+        <v>4110</v>
+      </c>
+      <c r="K107" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>44648.37797178241</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3951</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4261</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-310</v>
+      </c>
+      <c r="F108" t="n">
+        <v>154</v>
+      </c>
+      <c r="G108" t="n">
+        <v>314</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-160</v>
+      </c>
+      <c r="I108" t="n">
+        <v>4497</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4052</v>
+      </c>
+      <c r="K108" t="n">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44649.38815961806</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6699</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1571</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5128</v>
+      </c>
+      <c r="F109" t="n">
+        <v>259</v>
+      </c>
+      <c r="G109" t="n">
+        <v>154</v>
+      </c>
+      <c r="H109" t="n">
+        <v>105</v>
+      </c>
+      <c r="I109" t="n">
+        <v>5253</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3296</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>44650.40930723379</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2727</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5471</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-2744</v>
+      </c>
+      <c r="F110" t="n">
+        <v>242</v>
+      </c>
+      <c r="G110" t="n">
+        <v>86</v>
+      </c>
+      <c r="H110" t="n">
+        <v>156</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4913</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3636</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44651.35055310185</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2447</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5775</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-3328</v>
+      </c>
+      <c r="F111" t="n">
+        <v>219</v>
+      </c>
+      <c r="G111" t="n">
+        <v>162</v>
+      </c>
+      <c r="H111" t="n">
+        <v>57</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4547</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4002</v>
+      </c>
+      <c r="K111" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44652.81677052083</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5253</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2908</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2345</v>
+      </c>
+      <c r="F112" t="n">
+        <v>198</v>
+      </c>
+      <c r="G112" t="n">
+        <v>201</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4808</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3741</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44655.36145189815</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5110</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3110</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F113" t="n">
+        <v>192</v>
+      </c>
+      <c r="G113" t="n">
+        <v>102</v>
+      </c>
+      <c r="H113" t="n">
+        <v>90</v>
+      </c>
+      <c r="I113" t="n">
+        <v>5098</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44656.40464458333</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1444</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6780</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-5336</v>
+      </c>
+      <c r="F114" t="n">
+        <v>219</v>
+      </c>
+      <c r="G114" t="n">
+        <v>306</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-87</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4374</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4164</v>
+      </c>
+      <c r="K114" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44657.35333596065</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2086</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6111</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-4025</v>
+      </c>
+      <c r="F115" t="n">
+        <v>136</v>
+      </c>
+      <c r="G115" t="n">
+        <v>606</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-470</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3818</v>
+      </c>
+      <c r="J115" t="n">
+        <v>4720</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-902</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44658.41599037037</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3546</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4585</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1039</v>
+      </c>
+      <c r="F116" t="n">
+        <v>151</v>
+      </c>
+      <c r="G116" t="n">
+        <v>559</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-408</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3727</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4811</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-1084</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44659.61469894676</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3329</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4815</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-1486</v>
+      </c>
+      <c r="F117" t="n">
+        <v>251</v>
+      </c>
+      <c r="G117" t="n">
+        <v>520</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-269</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3613</v>
+      </c>
+      <c r="J117" t="n">
+        <v>4925</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-1312</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44662.37909722222</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2159</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6007</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-3848</v>
+      </c>
+      <c r="F118" t="n">
+        <v>143</v>
+      </c>
+      <c r="G118" t="n">
+        <v>729</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-586</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3120</v>
+      </c>
+      <c r="J118" t="n">
+        <v>5407</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-2287</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>44663.44993422454</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3621</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4483</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-862</v>
+      </c>
+      <c r="F119" t="n">
+        <v>173</v>
+      </c>
+      <c r="G119" t="n">
+        <v>476</v>
+      </c>
+      <c r="H119" t="n">
+        <v>-303</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3058</v>
+      </c>
+      <c r="J119" t="n">
+        <v>5469</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-2411</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>44664.41960386574</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6544</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1636</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4908</v>
+      </c>
+      <c r="F120" t="n">
+        <v>211</v>
+      </c>
+      <c r="G120" t="n">
+        <v>357</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-146</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3610</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4917</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-1307</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44665.53575064815</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2396</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5772</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-3376</v>
+      </c>
+      <c r="F121" t="n">
+        <v>283</v>
+      </c>
+      <c r="G121" t="n">
+        <v>544</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-261</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3308</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5219</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-1911</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>44669.36353797454</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2591</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5594</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-3003</v>
+      </c>
+      <c r="F122" t="n">
+        <v>292</v>
+      </c>
+      <c r="G122" t="n">
+        <v>858</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-566</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3080</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5428</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-2348</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>44670.35265877315</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5933</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2228</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3705</v>
+      </c>
+      <c r="F123" t="n">
+        <v>205</v>
+      </c>
+      <c r="G123" t="n">
+        <v>582</v>
+      </c>
+      <c r="H123" t="n">
+        <v>-377</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3705</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4803</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-1098</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>44671.3877184838</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4789</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3361</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1428</v>
+      </c>
+      <c r="F124" t="n">
+        <v>339</v>
+      </c>
+      <c r="G124" t="n">
+        <v>280</v>
+      </c>
+      <c r="H124" t="n">
+        <v>59</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3836</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4672</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-836</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>44672.33363002315</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6908</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-5608</v>
+      </c>
+      <c r="F125" t="n">
+        <v>336</v>
+      </c>
+      <c r="G125" t="n">
+        <v>722</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-386</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3169</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5339</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-2170</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>44673.33766561343</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1265</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6889</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-5624</v>
+      </c>
+      <c r="F126" t="n">
+        <v>39</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-1001</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2403</v>
+      </c>
+      <c r="J126" t="n">
+        <v>6105</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-3702</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>44676.31783071759</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4317</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3859</v>
+      </c>
+      <c r="E127" t="n">
+        <v>458</v>
+      </c>
+      <c r="F127" t="n">
+        <v>31</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1095</v>
+      </c>
+      <c r="H127" t="n">
+        <v>-1064</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2317</v>
+      </c>
+      <c r="J127" t="n">
+        <v>6187</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-3870</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>44677.41830925926</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1152</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7046</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-5894</v>
+      </c>
+      <c r="F128" t="n">
+        <v>31</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1296</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-1265</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1784</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6720</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-4936</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>44678.39372800926</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3676</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4426</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-750</v>
+      </c>
+      <c r="F129" t="n">
+        <v>34</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1420</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-1386</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1831</v>
+      </c>
+      <c r="J129" t="n">
+        <v>6675</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-4844</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>44679.36367872686</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6161</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4154</v>
+      </c>
+      <c r="F130" t="n">
+        <v>52</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1286</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-1234</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J130" t="n">
+        <v>6316</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-4126</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>44680.38831943287</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1412</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6796</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-5384</v>
+      </c>
+      <c r="F131" t="n">
+        <v>41</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1013</v>
+      </c>
+      <c r="H131" t="n">
+        <v>-972</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1679</v>
+      </c>
+      <c r="J131" t="n">
+        <v>6836</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-5157</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>44683.42889842593</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4430</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3705</v>
+      </c>
+      <c r="E132" t="n">
+        <v>725</v>
+      </c>
+      <c r="F132" t="n">
+        <v>44</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1683</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-1639</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1684</v>
+      </c>
+      <c r="J132" t="n">
+        <v>6827</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-5143</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>44684.37591445602</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5345</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2770</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2575</v>
+      </c>
+      <c r="F133" t="n">
+        <v>47</v>
+      </c>
+      <c r="G133" t="n">
+        <v>379</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-332</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1873</v>
+      </c>
+      <c r="J133" t="n">
+        <v>6638</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-4765</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>44685.34883126157</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6712</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1471</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5241</v>
+      </c>
+      <c r="F134" t="n">
+        <v>91</v>
+      </c>
+      <c r="G134" t="n">
+        <v>755</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-664</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2449</v>
+      </c>
+      <c r="J134" t="n">
+        <v>6067</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-3618</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>44686.40046756945</v>
+      </c>
+      <c r="C135" t="n">
+        <v>862</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7347</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-6485</v>
+      </c>
+      <c r="F135" t="n">
+        <v>93</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1142</v>
+      </c>
+      <c r="H135" t="n">
+        <v>-1049</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1786</v>
+      </c>
+      <c r="J135" t="n">
+        <v>6730</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-4944</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>44687.35496318287</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6234</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-4297</v>
+      </c>
+      <c r="F136" t="n">
+        <v>68</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2022</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-1954</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1625</v>
+      </c>
+      <c r="J136" t="n">
+        <v>6891</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-5266</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>44690.33843474537</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D137" t="n">
+        <v>7214</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-6129</v>
+      </c>
+      <c r="F137" t="n">
+        <v>55</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3136</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-3081</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1107</v>
+      </c>
+      <c r="J137" t="n">
+        <v>7401</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-6294</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>44691.34141314815</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3734</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4479</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-745</v>
+      </c>
+      <c r="F138" t="n">
+        <v>40</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2602</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-2562</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J138" t="n">
+        <v>7508</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-6508</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>44692.33990525463</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6310</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-4391</v>
+      </c>
+      <c r="F139" t="n">
+        <v>42</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2605</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-2563</v>
+      </c>
+      <c r="I139" t="n">
+        <v>897</v>
+      </c>
+      <c r="J139" t="n">
+        <v>7616</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-6719</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>44693.35964423611</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4463</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3762</v>
+      </c>
+      <c r="E140" t="n">
+        <v>701</v>
+      </c>
+      <c r="F140" t="n">
+        <v>46</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3226</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-3180</v>
+      </c>
+      <c r="I140" t="n">
+        <v>896</v>
+      </c>
+      <c r="J140" t="n">
+        <v>7617</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-6721</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>44694.38573180555</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6719</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1526</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5193</v>
+      </c>
+      <c r="F141" t="n">
+        <v>25</v>
+      </c>
+      <c r="G141" t="n">
+        <v>352</v>
+      </c>
+      <c r="H141" t="n">
+        <v>-327</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1189</v>
+      </c>
+      <c r="J141" t="n">
+        <v>7324</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-6135</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>44697.34778409722</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3731</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4423</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-692</v>
+      </c>
+      <c r="F142" t="n">
+        <v>59</v>
+      </c>
+      <c r="G142" t="n">
+        <v>360</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-301</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1216</v>
+      </c>
+      <c r="J142" t="n">
+        <v>7285</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-6069</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>44698.35194677083</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6702</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1478</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5224</v>
+      </c>
+      <c r="F143" t="n">
+        <v>84</v>
+      </c>
+      <c r="G143" t="n">
+        <v>254</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-170</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1636</v>
+      </c>
+      <c r="J143" t="n">
+        <v>6865</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-5229</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>44699.25876100695</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1177</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6982</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-5805</v>
+      </c>
+      <c r="F144" t="n">
+        <v>46</v>
+      </c>
+      <c r="G144" t="n">
+        <v>590</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-544</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1205</v>
+      </c>
+      <c r="J144" t="n">
+        <v>7296</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-6091</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>44700.34618262731</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4483</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3625</v>
+      </c>
+      <c r="E145" t="n">
+        <v>858</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20</v>
+      </c>
+      <c r="G145" t="n">
+        <v>638</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-618</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1203</v>
+      </c>
+      <c r="J145" t="n">
+        <v>7298</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-6095</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>44701.37096746528</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3956</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4122</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-166</v>
+      </c>
+      <c r="F146" t="n">
+        <v>41</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1018</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-977</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1214</v>
+      </c>
+      <c r="J146" t="n">
+        <v>7295</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-6081</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>44704.49089359953</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5658</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2537</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3121</v>
+      </c>
+      <c r="F147" t="n">
+        <v>57</v>
+      </c>
+      <c r="G147" t="n">
+        <v>234</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-177</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1448</v>
+      </c>
+      <c r="J147" t="n">
+        <v>7168</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-5720</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>44705.35665401621</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2735</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5529</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-2794</v>
+      </c>
+      <c r="F148" t="n">
+        <v>54</v>
+      </c>
+      <c r="G148" t="n">
+        <v>749</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-695</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1378</v>
+      </c>
+      <c r="J148" t="n">
+        <v>7238</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-5860</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>44706.35588740741</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6258</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4284</v>
+      </c>
+      <c r="F149" t="n">
+        <v>98</v>
+      </c>
+      <c r="G149" t="n">
+        <v>335</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-237</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1657</v>
+      </c>
+      <c r="J149" t="n">
+        <v>6960</v>
+      </c>
+      <c r="K149" t="n">
+        <v>-5303</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>44707.34665931713</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6735</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1522</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5213</v>
+      </c>
+      <c r="F150" t="n">
+        <v>146</v>
+      </c>
+      <c r="G150" t="n">
+        <v>152</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2129</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6488</v>
+      </c>
+      <c r="K150" t="n">
+        <v>-4359</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>44708.47832788195</v>
+      </c>
+      <c r="C151" t="n">
+        <v>7176</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1122</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6054</v>
+      </c>
+      <c r="F151" t="n">
+        <v>160</v>
+      </c>
+      <c r="G151" t="n">
+        <v>95</v>
+      </c>
+      <c r="H151" t="n">
+        <v>65</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2831</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5786</v>
+      </c>
+      <c r="K151" t="n">
+        <v>-2955</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>44712.35975739583</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2721</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5535</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-2814</v>
+      </c>
+      <c r="F152" t="n">
+        <v>189</v>
+      </c>
+      <c r="G152" t="n">
+        <v>87</v>
+      </c>
+      <c r="H152" t="n">
+        <v>102</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2650</v>
+      </c>
+      <c r="J152" t="n">
+        <v>5961</v>
+      </c>
+      <c r="K152" t="n">
+        <v>-3311</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>44713.41894678241</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2648</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5621</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-2973</v>
+      </c>
+      <c r="F153" t="n">
+        <v>80</v>
+      </c>
+      <c r="G153" t="n">
+        <v>164</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-84</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2472</v>
+      </c>
+      <c r="J153" t="n">
+        <v>6139</v>
+      </c>
+      <c r="K153" t="n">
+        <v>-3667</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>44714.35040380787</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6772</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1495</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5277</v>
+      </c>
+      <c r="F154" t="n">
+        <v>98</v>
+      </c>
+      <c r="G154" t="n">
+        <v>126</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-28</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3245</v>
+      </c>
+      <c r="J154" t="n">
+        <v>5366</v>
+      </c>
+      <c r="K154" t="n">
+        <v>-2121</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>44715.28297453704</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2206</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6050</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-3844</v>
+      </c>
+      <c r="F155" t="n">
+        <v>95</v>
+      </c>
+      <c r="G155" t="n">
+        <v>110</v>
+      </c>
+      <c r="H155" t="n">
+        <v>-15</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2863</v>
+      </c>
+      <c r="J155" t="n">
+        <v>5748</v>
+      </c>
+      <c r="K155" t="n">
+        <v>-2885</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>44718.42230751157</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4660</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3608</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1052</v>
+      </c>
+      <c r="F156" t="n">
+        <v>162</v>
+      </c>
+      <c r="G156" t="n">
+        <v>170</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3023</v>
+      </c>
+      <c r="J156" t="n">
+        <v>5567</v>
+      </c>
+      <c r="K156" t="n">
+        <v>-2544</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>44719.37562577546</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5908</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2347</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3561</v>
+      </c>
+      <c r="F157" t="n">
+        <v>207</v>
+      </c>
+      <c r="G157" t="n">
+        <v>169</v>
+      </c>
+      <c r="H157" t="n">
+        <v>38</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3480</v>
+      </c>
+      <c r="J157" t="n">
+        <v>5110</v>
+      </c>
+      <c r="K157" t="n">
+        <v>-1630</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>44720.36000672454</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2569</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5693</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-3124</v>
+      </c>
+      <c r="F158" t="n">
+        <v>186</v>
+      </c>
+      <c r="G158" t="n">
+        <v>122</v>
+      </c>
+      <c r="H158" t="n">
+        <v>64</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2999</v>
+      </c>
+      <c r="J158" t="n">
+        <v>5592</v>
+      </c>
+      <c r="K158" t="n">
+        <v>-2593</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>44721.3422925</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1412</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6876</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-5464</v>
+      </c>
+      <c r="F159" t="n">
+        <v>35</v>
+      </c>
+      <c r="G159" t="n">
+        <v>238</v>
+      </c>
+      <c r="H159" t="n">
+        <v>-203</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2389</v>
+      </c>
+      <c r="J159" t="n">
+        <v>6202</v>
+      </c>
+      <c r="K159" t="n">
+        <v>-3813</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>44726.4093287037</v>
+      </c>
+      <c r="C160" t="n">
+        <v>3097</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5160</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-2063</v>
+      </c>
+      <c r="F160" t="n">
+        <v>59</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2542</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-2483</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1151</v>
+      </c>
+      <c r="J160" t="n">
+        <v>7437</v>
+      </c>
+      <c r="K160" t="n">
+        <v>-6286</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>44727.58826388889</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6316</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1924</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4392</v>
+      </c>
+      <c r="F161" t="n">
+        <v>21</v>
+      </c>
+      <c r="G161" t="n">
+        <v>697</v>
+      </c>
+      <c r="H161" t="n">
+        <v>-676</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1328</v>
+      </c>
+      <c r="J161" t="n">
+        <v>7260</v>
+      </c>
+      <c r="K161" t="n">
+        <v>-5932</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>44728.36212962963</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1083</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7254</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-6171</v>
+      </c>
+      <c r="F162" t="n">
+        <v>46</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2894</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-2848</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1004</v>
+      </c>
+      <c r="J162" t="n">
+        <v>7590</v>
+      </c>
+      <c r="K162" t="n">
+        <v>-6586</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>44729.45814814815</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5330</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2953</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2377</v>
+      </c>
+      <c r="F163" t="n">
+        <v>25</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1324</v>
+      </c>
+      <c r="H163" t="n">
+        <v>-1299</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1131</v>
+      </c>
+      <c r="J163" t="n">
+        <v>7463</v>
+      </c>
+      <c r="K163" t="n">
+        <v>-6332</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>44733.38614538194</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6007</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2260</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3747</v>
+      </c>
+      <c r="F164" t="n">
+        <v>32</v>
+      </c>
+      <c r="G164" t="n">
+        <v>329</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-297</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1325</v>
+      </c>
+      <c r="J164" t="n">
+        <v>7251</v>
+      </c>
+      <c r="K164" t="n">
+        <v>-5926</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>44734.39088152778</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3723</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4478</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-755</v>
+      </c>
+      <c r="F165" t="n">
+        <v>11</v>
+      </c>
+      <c r="G165" t="n">
+        <v>596</v>
+      </c>
+      <c r="H165" t="n">
+        <v>-585</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1354</v>
+      </c>
+      <c r="J165" t="n">
+        <v>7222</v>
+      </c>
+      <c r="K165" t="n">
+        <v>-5868</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>44735.34733796296</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5211</v>
+      </c>
+      <c r="D166" t="n">
+        <v>3003</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2208</v>
+      </c>
+      <c r="F166" t="n">
+        <v>34</v>
+      </c>
+      <c r="G166" t="n">
+        <v>639</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-605</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1617</v>
+      </c>
+      <c r="J166" t="n">
+        <v>6959</v>
+      </c>
+      <c r="K166" t="n">
+        <v>-5342</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>44736.38468323885</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6393</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4573</v>
+      </c>
+      <c r="F167" t="n">
+        <v>42</v>
+      </c>
+      <c r="G167" t="n">
+        <v>183</v>
+      </c>
+      <c r="H167" t="n">
+        <v>-141</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2031</v>
+      </c>
+      <c r="J167" t="n">
+        <v>6545</v>
+      </c>
+      <c r="K167" t="n">
+        <v>-4514</v>
       </c>
     </row>
   </sheetData>
